--- a/BD Zapateria.xlsx
+++ b/BD Zapateria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawer\Documents\Desarollo\DBAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E54090-3046-4B72-907B-67A69BD1C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2488E5B-EA44-4506-B451-015B39DA4AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="3" activeTab="8" xr2:uid="{C2C948E1-9551-4AEB-959A-9C8771220AD7}"/>
+    <workbookView xWindow="1464" yWindow="1764" windowWidth="15912" windowHeight="8172" firstSheet="4" activeTab="9" xr2:uid="{C2C948E1-9551-4AEB-959A-9C8771220AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcas" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,22 +330,20 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -659,44 +665,44 @@
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -710,13 +716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FD68DE-DC91-4C35-93A9-D54B6032B31F}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -726,33 +732,33 @@
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>44935</v>
       </c>
       <c r="B2">
@@ -776,19 +782,19 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>345.5</v>
       </c>
-      <c r="J2" s="9">
-        <f>H2*I2</f>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J16" si="0">H2*I2</f>
         <v>3455</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>44935</v>
       </c>
       <c r="B3">
@@ -812,19 +818,19 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>345.5</v>
       </c>
-      <c r="J3" s="9">
-        <f>H3*I3</f>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>44935</v>
       </c>
       <c r="B4">
@@ -848,19 +854,19 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>345.5</v>
       </c>
-      <c r="J4" s="9">
-        <f>H4*I4</f>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>44935</v>
       </c>
       <c r="B5">
@@ -884,19 +890,19 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>345.5</v>
       </c>
-      <c r="J5" s="9">
-        <f>H5*I5</f>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>44935</v>
       </c>
       <c r="B6">
@@ -920,19 +926,19 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>345.5</v>
       </c>
-      <c r="J6" s="9">
-        <f>H6*I6</f>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>44935</v>
       </c>
       <c r="B7">
@@ -956,19 +962,19 @@
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>345.5</v>
       </c>
-      <c r="J7" s="9">
-        <f>H7*I7</f>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>44935</v>
       </c>
       <c r="B8">
@@ -995,16 +1001,16 @@
       <c r="I8" s="9">
         <v>345.5</v>
       </c>
-      <c r="J8" s="9">
-        <f>H8*I8</f>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>44935</v>
       </c>
       <c r="B9">
@@ -1028,19 +1034,19 @@
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>345.5</v>
       </c>
-      <c r="J9" s="9">
-        <f>H9*I9</f>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>44935</v>
       </c>
       <c r="B10">
@@ -1064,19 +1070,19 @@
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>345.5</v>
       </c>
-      <c r="J10" s="9">
-        <f>H10*I10</f>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>44935</v>
       </c>
       <c r="B11">
@@ -1100,19 +1106,19 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>345.5</v>
       </c>
-      <c r="J11" s="9">
-        <f>H11*I11</f>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="K11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>44935</v>
       </c>
       <c r="B12">
@@ -1136,19 +1142,19 @@
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>345.5</v>
       </c>
-      <c r="J12" s="9">
-        <f>H12*I12</f>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
         <v>1727.5</v>
       </c>
       <c r="K12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>44935</v>
       </c>
       <c r="B13">
@@ -1172,19 +1178,19 @@
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>345.5</v>
       </c>
-      <c r="J13" s="9">
-        <f>H13*I13</f>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
         <v>1727.5</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>44935</v>
       </c>
       <c r="B14">
@@ -1208,19 +1214,19 @@
       <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>345.5</v>
       </c>
-      <c r="J14" s="9">
-        <f>H14*I14</f>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
         <v>1727.5</v>
       </c>
       <c r="K14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>44935</v>
       </c>
       <c r="B15">
@@ -1244,19 +1250,19 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>345.5</v>
       </c>
-      <c r="J15" s="9">
-        <f>H15*I15</f>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
         <v>1727.5</v>
       </c>
       <c r="K15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>44935</v>
       </c>
       <c r="B16">
@@ -1280,11 +1286,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>345.5</v>
       </c>
-      <c r="J16" s="9">
-        <f>H16*I16</f>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
         <v>1727.5</v>
       </c>
       <c r="K16" t="s">
@@ -1304,13 +1310,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>24201030</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>23143567</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1364,38 +1370,38 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="7" width="14.06640625" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1960,12 +1966,12 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="7" width="15.265625" customWidth="1"/>
+    <col min="5" max="7" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1978,17 +1984,17 @@
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2045,39 +2051,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2095,9 +2101,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2179,34 +2185,34 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2265,12 +2271,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2298,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2305,14 +2311,14 @@
       <c r="D2">
         <v>22345576</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2325,14 +2331,14 @@
       <c r="D3">
         <v>55678392</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2342,7 +2348,13 @@
       <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2359,13 +2371,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB024A0-DB21-4C00-989A-BD44229AEC85}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2375,33 +2387,33 @@
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>44935</v>
       </c>
       <c r="B2">
@@ -2425,10 +2437,10 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>345.5</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <f>H2*I2</f>
         <v>345.5</v>
       </c>
@@ -2436,8 +2448,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>44935</v>
       </c>
       <c r="B3">
@@ -2461,10 +2473,10 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>543</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f>H3*I3</f>
         <v>543</v>
       </c>
@@ -2472,8 +2484,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>44966</v>
       </c>
       <c r="B4">
@@ -2497,10 +2509,10 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>245</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <f>H4*I4</f>
         <v>490</v>
       </c>
